--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-03.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-03.xlsx
@@ -705,109 +705,109 @@
         <v>56</v>
       </c>
       <c r="F2">
-        <v>1.62</v>
+        <v>2.16</v>
       </c>
       <c r="G2">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="J2">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="K2">
-        <v>3.9</v>
+        <v>2.26</v>
       </c>
       <c r="L2">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="N2">
+        <v>1.4</v>
+      </c>
+      <c r="O2">
+        <v>3.4</v>
+      </c>
+      <c r="P2">
+        <v>1.09</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>1.01</v>
+      </c>
+      <c r="S2">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>6.6</v>
+      </c>
+      <c r="U2">
+        <v>1.17</v>
+      </c>
+      <c r="V2">
+        <v>1.09</v>
+      </c>
+      <c r="W2">
+        <v>1.9</v>
+      </c>
+      <c r="X2">
         <v>2.9</v>
       </c>
-      <c r="O2">
-        <v>1.47</v>
-      </c>
-      <c r="P2">
-        <v>1.65</v>
-      </c>
-      <c r="Q2">
-        <v>2.48</v>
-      </c>
-      <c r="R2">
-        <v>1.22</v>
-      </c>
-      <c r="S2">
-        <v>4.9</v>
-      </c>
-      <c r="T2">
-        <v>1.01</v>
-      </c>
-      <c r="U2">
-        <v>1.61</v>
-      </c>
-      <c r="V2">
-        <v>1.14</v>
-      </c>
-      <c r="W2">
-        <v>2.58</v>
-      </c>
-      <c r="X2">
-        <v>1000</v>
-      </c>
       <c r="Y2">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z2">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="AC2">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD2">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AE2">
         <v>1000</v>
       </c>
       <c r="AF2">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG2">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AH2">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK2">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AL2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM2">
         <v>1000</v>
       </c>
       <c r="AN2">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO2">
         <v>1000</v>
@@ -830,112 +830,112 @@
         <v>57</v>
       </c>
       <c r="F3">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="G3">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="H3">
         <v>7.2</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J3">
-        <v>3.6</v>
+        <v>2.18</v>
       </c>
       <c r="K3">
+        <v>2.24</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.55</v>
+      </c>
+      <c r="N3">
+        <v>1.35</v>
+      </c>
+      <c r="O3">
         <v>3.8</v>
       </c>
-      <c r="L3">
-        <v>1.59</v>
-      </c>
-      <c r="M3">
-        <v>1.12</v>
-      </c>
-      <c r="N3">
-        <v>2.74</v>
-      </c>
-      <c r="O3">
-        <v>1.56</v>
-      </c>
       <c r="P3">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="Q3">
-        <v>2.74</v>
+        <v>11.5</v>
       </c>
       <c r="R3">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="S3">
-        <v>5.6</v>
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>1.04</v>
+        <v>6.2</v>
       </c>
       <c r="U3">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="V3">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W3">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="X3">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="Y3">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z3">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AA3">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="AC3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD3">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AE3">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF3">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AG3">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AH3">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="AI3">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AK3">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AL3">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM3">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN3">
-        <v>17.5</v>
+        <v>260</v>
       </c>
       <c r="AO3">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -955,112 +955,112 @@
         <v>58</v>
       </c>
       <c r="F4">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="G4">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="H4">
-        <v>10.5</v>
+        <v>400</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J4">
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <v>150</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>4.3</v>
+      </c>
+      <c r="Q4">
+        <v>1.29</v>
+      </c>
+      <c r="R4">
+        <v>1.75</v>
+      </c>
+      <c r="S4">
+        <v>2.28</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>1.29</v>
+      </c>
+      <c r="V4">
+        <v>1.01</v>
+      </c>
+      <c r="W4">
+        <v>85</v>
+      </c>
+      <c r="X4">
+        <v>1000</v>
+      </c>
+      <c r="Y4">
+        <v>1000</v>
+      </c>
+      <c r="Z4">
+        <v>1000</v>
+      </c>
+      <c r="AA4">
+        <v>1000</v>
+      </c>
+      <c r="AB4">
+        <v>1000</v>
+      </c>
+      <c r="AC4">
+        <v>1000</v>
+      </c>
+      <c r="AD4">
+        <v>1000</v>
+      </c>
+      <c r="AE4">
+        <v>1000</v>
+      </c>
+      <c r="AF4">
         <v>4.6</v>
       </c>
-      <c r="K4">
-        <v>4.7</v>
-      </c>
-      <c r="L4">
-        <v>1.51</v>
-      </c>
-      <c r="M4">
-        <v>1.09</v>
-      </c>
-      <c r="N4">
-        <v>3.1</v>
-      </c>
-      <c r="O4">
-        <v>1.47</v>
-      </c>
-      <c r="P4">
-        <v>1.68</v>
-      </c>
-      <c r="Q4">
-        <v>2.44</v>
-      </c>
-      <c r="R4">
-        <v>1.25</v>
-      </c>
-      <c r="S4">
-        <v>4.8</v>
-      </c>
-      <c r="T4">
-        <v>2.72</v>
-      </c>
-      <c r="U4">
-        <v>1.53</v>
-      </c>
-      <c r="V4">
-        <v>1.1</v>
-      </c>
-      <c r="W4">
-        <v>3.2</v>
-      </c>
-      <c r="X4">
-        <v>11</v>
-      </c>
-      <c r="Y4">
-        <v>25</v>
-      </c>
-      <c r="Z4">
-        <v>95</v>
-      </c>
-      <c r="AA4">
-        <v>1000</v>
-      </c>
-      <c r="AB4">
-        <v>5.5</v>
-      </c>
-      <c r="AC4">
-        <v>11</v>
-      </c>
-      <c r="AD4">
-        <v>46</v>
-      </c>
-      <c r="AE4">
-        <v>300</v>
-      </c>
-      <c r="AF4">
-        <v>6.4</v>
-      </c>
       <c r="AG4">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH4">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AI4">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>12.5</v>
+        <v>3.9</v>
       </c>
       <c r="AK4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AL4">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM4">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AN4">
-        <v>10.5</v>
+        <v>3.05</v>
       </c>
       <c r="AO4">
-        <v>760</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1080,112 +1080,112 @@
         <v>59</v>
       </c>
       <c r="F5">
-        <v>2.28</v>
+        <v>1.41</v>
       </c>
       <c r="G5">
-        <v>2.34</v>
+        <v>1.42</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="J5">
+        <v>4.4</v>
+      </c>
+      <c r="K5">
+        <v>4.5</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3.25</v>
+      </c>
+      <c r="O5">
+        <v>1.42</v>
+      </c>
+      <c r="P5">
+        <v>1.46</v>
+      </c>
+      <c r="Q5">
         <v>3.05</v>
       </c>
-      <c r="K5">
-        <v>3.15</v>
-      </c>
-      <c r="L5">
-        <v>1.57</v>
-      </c>
-      <c r="M5">
-        <v>1.13</v>
-      </c>
-      <c r="N5">
-        <v>2.92</v>
-      </c>
-      <c r="O5">
-        <v>1.5</v>
-      </c>
-      <c r="P5">
-        <v>1.6</v>
-      </c>
-      <c r="Q5">
-        <v>2.62</v>
-      </c>
       <c r="R5">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="S5">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="V5">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="W5">
-        <v>1.74</v>
+        <v>3.4</v>
       </c>
       <c r="X5">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
+        <v>1000</v>
+      </c>
+      <c r="AA5">
+        <v>1000</v>
+      </c>
+      <c r="AB5">
+        <v>3.35</v>
+      </c>
+      <c r="AC5">
+        <v>5.4</v>
+      </c>
+      <c r="AD5">
+        <v>23</v>
+      </c>
+      <c r="AE5">
+        <v>180</v>
+      </c>
+      <c r="AF5">
+        <v>5.8</v>
+      </c>
+      <c r="AG5">
+        <v>9.6</v>
+      </c>
+      <c r="AH5">
         <v>29</v>
       </c>
-      <c r="AA5">
-        <v>95</v>
-      </c>
-      <c r="AB5">
-        <v>7.4</v>
-      </c>
-      <c r="AC5">
-        <v>7</v>
-      </c>
-      <c r="AD5">
-        <v>19</v>
-      </c>
-      <c r="AE5">
-        <v>75</v>
-      </c>
-      <c r="AF5">
-        <v>12</v>
-      </c>
-      <c r="AG5">
-        <v>11.5</v>
-      </c>
-      <c r="AH5">
-        <v>22</v>
-      </c>
       <c r="AI5">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AJ5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AK5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL5">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM5">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN5">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AO5">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1205,112 +1205,112 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>1.96</v>
+        <v>1.42</v>
       </c>
       <c r="G6">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="H6">
+        <v>11.5</v>
+      </c>
+      <c r="I6">
+        <v>13.5</v>
+      </c>
+      <c r="J6">
+        <v>4.3</v>
+      </c>
+      <c r="K6">
+        <v>4.8</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>1.24</v>
+      </c>
+      <c r="P6">
+        <v>1.88</v>
+      </c>
+      <c r="Q6">
+        <v>2.12</v>
+      </c>
+      <c r="R6">
+        <v>1.24</v>
+      </c>
+      <c r="S6">
         <v>4.7</v>
       </c>
-      <c r="I6">
-        <v>4.8</v>
-      </c>
-      <c r="J6">
-        <v>3.55</v>
-      </c>
-      <c r="K6">
-        <v>3.6</v>
-      </c>
-      <c r="L6">
-        <v>1.49</v>
-      </c>
-      <c r="M6">
-        <v>1.09</v>
-      </c>
-      <c r="N6">
-        <v>3.2</v>
-      </c>
-      <c r="O6">
-        <v>1.43</v>
-      </c>
-      <c r="P6">
-        <v>1.72</v>
-      </c>
-      <c r="Q6">
-        <v>2.3</v>
-      </c>
-      <c r="R6">
-        <v>1.27</v>
-      </c>
-      <c r="S6">
-        <v>4.4</v>
-      </c>
       <c r="T6">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="U6">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="V6">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="W6">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="X6">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6">
+        <v>1000</v>
+      </c>
+      <c r="Z6">
+        <v>1000</v>
+      </c>
+      <c r="AA6">
+        <v>1000</v>
+      </c>
+      <c r="AB6">
+        <v>5.2</v>
+      </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
+      <c r="AD6">
+        <v>23</v>
+      </c>
+      <c r="AE6">
+        <v>1000</v>
+      </c>
+      <c r="AF6">
+        <v>6</v>
+      </c>
+      <c r="AG6">
+        <v>8.4</v>
+      </c>
+      <c r="AH6">
+        <v>990</v>
+      </c>
+      <c r="AI6">
+        <v>1000</v>
+      </c>
+      <c r="AJ6">
         <v>14</v>
       </c>
-      <c r="Z6">
-        <v>34</v>
-      </c>
-      <c r="AA6">
-        <v>130</v>
-      </c>
-      <c r="AB6">
-        <v>7.6</v>
-      </c>
-      <c r="AC6">
-        <v>7.6</v>
-      </c>
-      <c r="AD6">
-        <v>18.5</v>
-      </c>
-      <c r="AE6">
-        <v>75</v>
-      </c>
-      <c r="AF6">
-        <v>10.5</v>
-      </c>
-      <c r="AG6">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH6">
-        <v>23</v>
-      </c>
-      <c r="AI6">
-        <v>80</v>
-      </c>
-      <c r="AJ6">
-        <v>23</v>
-      </c>
       <c r="AK6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL6">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AO6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1330,112 +1330,112 @@
         <v>61</v>
       </c>
       <c r="F7">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="G7">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H7">
+        <v>1.95</v>
+      </c>
+      <c r="I7">
+        <v>2.06</v>
+      </c>
+      <c r="J7">
+        <v>3.1</v>
+      </c>
+      <c r="K7">
+        <v>3.4</v>
+      </c>
+      <c r="L7">
+        <v>1.8</v>
+      </c>
+      <c r="M7">
+        <v>1.13</v>
+      </c>
+      <c r="N7">
+        <v>2.8</v>
+      </c>
+      <c r="O7">
+        <v>1.51</v>
+      </c>
+      <c r="P7">
+        <v>1.59</v>
+      </c>
+      <c r="Q7">
+        <v>2.54</v>
+      </c>
+      <c r="R7">
+        <v>1.21</v>
+      </c>
+      <c r="S7">
+        <v>5.1</v>
+      </c>
+      <c r="T7">
+        <v>2.12</v>
+      </c>
+      <c r="U7">
         <v>1.72</v>
       </c>
-      <c r="I7">
-        <v>1.85</v>
-      </c>
-      <c r="J7">
-        <v>3.55</v>
-      </c>
-      <c r="K7">
-        <v>4.2</v>
-      </c>
-      <c r="L7">
-        <v>1.41</v>
-      </c>
-      <c r="M7">
-        <v>1.08</v>
-      </c>
-      <c r="N7">
-        <v>3.6</v>
-      </c>
-      <c r="O7">
-        <v>1.35</v>
-      </c>
-      <c r="P7">
-        <v>1.87</v>
-      </c>
-      <c r="Q7">
-        <v>2.06</v>
-      </c>
-      <c r="R7">
-        <v>1.34</v>
-      </c>
-      <c r="S7">
-        <v>3.75</v>
-      </c>
-      <c r="T7">
-        <v>1.84</v>
-      </c>
-      <c r="U7">
-        <v>1.92</v>
-      </c>
       <c r="V7">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="X7">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y7">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z7">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA7">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AB7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC7">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE7">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG7">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AH7">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="AI7">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK7">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL7">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM7">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN7">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO7">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
